--- a/output/comparison/average high samp size RMSE.xlsx
+++ b/output/comparison/average high samp size RMSE.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
     <t>Skill</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>overall_2022</t>
@@ -435,13 +435,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.116451597702343</v>
+        <v>0.1038047699034157</v>
       </c>
       <c r="C2">
-        <v>0.09505558626961635</v>
+        <v>0.128316685265999</v>
       </c>
       <c r="D2">
-        <v>0.06776378237688997</v>
+        <v>0.1347554544635898</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1347554544635898</v>
+        <v>0.06776378237688997</v>
       </c>
       <c r="C3">
-        <v>0.128316685265999</v>
+        <v>0.09505558626961635</v>
       </c>
       <c r="D3">
-        <v>0.1038047699034157</v>
+        <v>0.116451597702343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.09349089734065784</v>
+        <v>0.0681345671910369</v>
       </c>
       <c r="C4">
         <v>0.09975173315937275</v>
       </c>
       <c r="D4">
-        <v>0.0681345671910369</v>
+        <v>0.09349089734065784</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -482,13 +482,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.09193669353994567</v>
+        <v>0.0814358717576123</v>
       </c>
       <c r="C6">
         <v>0.1016526687948597</v>
       </c>
       <c r="D6">
-        <v>0.0814358717576123</v>
+        <v>0.09193669353994567</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,21 +496,21 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <v>0.0532491310699793</v>
+      </c>
+      <c r="C7">
+        <v>0.04987784677556073</v>
+      </c>
+      <c r="D7">
         <v>0.0252641154816292</v>
-      </c>
-      <c r="C7">
-        <v>0.0682712646993042</v>
-      </c>
-      <c r="D7">
-        <v>0.05093878455884826</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
-        <v>0.08552708445523509</v>
+      <c r="B8">
+        <v>0.09888335639537647</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,13 +518,13 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>0.1453431473333416</v>
+      </c>
+      <c r="C9">
+        <v>0.1252059136647879</v>
+      </c>
+      <c r="D9">
         <v>0.09809399797729965</v>
-      </c>
-      <c r="C9">
-        <v>0.1403962059534422</v>
-      </c>
-      <c r="D9">
-        <v>0.1331403421618182</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,13 +532,13 @@
         <v>11</v>
       </c>
       <c r="B10">
+        <v>0.08388346443514665</v>
+      </c>
+      <c r="C10">
+        <v>0.08721264570471618</v>
+      </c>
+      <c r="D10">
         <v>0.08197298932192362</v>
-      </c>
-      <c r="C10">
-        <v>0.07603248160504344</v>
-      </c>
-      <c r="D10">
-        <v>0.07964115444603762</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,13 +546,13 @@
         <v>12</v>
       </c>
       <c r="B11">
+        <v>0.09284219855464459</v>
+      </c>
+      <c r="C11">
+        <v>0.09706758890002824</v>
+      </c>
+      <c r="D11">
         <v>0.0452354704939916</v>
-      </c>
-      <c r="C11">
-        <v>0.1188025014454859</v>
-      </c>
-      <c r="D11">
-        <v>0.1257009610447698</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,13 +560,13 @@
         <v>13</v>
       </c>
       <c r="B12">
+        <v>0.07653497343889322</v>
+      </c>
+      <c r="C12">
+        <v>0.09141005085523236</v>
+      </c>
+      <c r="D12">
         <v>0.08496711374244829</v>
-      </c>
-      <c r="C12">
-        <v>0.07437002589082145</v>
-      </c>
-      <c r="D12">
-        <v>0.07596990177662623</v>
       </c>
     </row>
   </sheetData>
